--- a/techniqo/data_new_ticker/QUESS.xlsx
+++ b/techniqo/data_new_ticker/QUESS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1035"/>
+  <dimension ref="A1:G1037"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36611,6 +36611,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1036" t="n">
+        <v>430</v>
+      </c>
+      <c r="C1036" t="n">
+        <v>447</v>
+      </c>
+      <c r="D1036" t="n">
+        <v>418.9</v>
+      </c>
+      <c r="E1036" t="n">
+        <v>438.3</v>
+      </c>
+      <c r="F1036" t="n">
+        <v>1214487</v>
+      </c>
+      <c r="G1036" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1037" t="n">
+        <v>439</v>
+      </c>
+      <c r="C1037" t="n">
+        <v>450</v>
+      </c>
+      <c r="D1037" t="n">
+        <v>428</v>
+      </c>
+      <c r="E1037" t="n">
+        <v>443</v>
+      </c>
+      <c r="F1037" t="n">
+        <v>311679</v>
+      </c>
+      <c r="G1037" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/QUESS.xlsx
+++ b/techniqo/data_new_ticker/QUESS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1037"/>
+  <dimension ref="A1:G1039"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36661,6 +36661,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1038" t="n">
+        <v>440</v>
+      </c>
+      <c r="C1038" t="n">
+        <v>446.4</v>
+      </c>
+      <c r="D1038" t="n">
+        <v>430</v>
+      </c>
+      <c r="E1038" t="n">
+        <v>433.15</v>
+      </c>
+      <c r="F1038" t="n">
+        <v>142478</v>
+      </c>
+      <c r="G1038" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1039" t="n">
+        <v>417</v>
+      </c>
+      <c r="C1039" t="n">
+        <v>459.65</v>
+      </c>
+      <c r="D1039" t="n">
+        <v>417</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>426.55</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>319508</v>
+      </c>
+      <c r="G1039" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
